--- a/Document/Hệ thống phần mềm NICHIAS.xlsx
+++ b/Document/Hệ thống phần mềm NICHIAS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MACBOOK\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\NICHIAS\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBED7979-AD58-40EF-B30E-46DBB5120307}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB848B70-3F70-4FC0-990E-2A1464FB5D18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="19095" windowHeight="8460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mô tả hệ thống" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>STT</t>
   </si>
@@ -77,24 +77,12 @@
     <t>Điền thông tin theo PO và tự động tính estimate thời gian giao hàng</t>
   </si>
   <si>
-    <t>In lệnh sản xuất</t>
-  </si>
-  <si>
-    <t>In lệnh sản xuất bao gồm thông tin đơn hàng và thông tin sản phẩm</t>
-  </si>
-  <si>
     <t>Đặt lệnh sản xuất</t>
   </si>
   <si>
     <t>Đặt lệnh sản xuất dựa vào danh sách đơn hàng đã đăng ký</t>
   </si>
   <si>
-    <t>Xử lý quy trình sản xuất</t>
-  </si>
-  <si>
-    <t>Xử lý kết quả sản xuất</t>
-  </si>
-  <si>
     <t>Danh sách máy</t>
   </si>
   <si>
@@ -108,16 +96,6 @@
   </si>
   <si>
     <t>Theo dõi và cảnh báo sản phẩm</t>
-  </si>
-  <si>
-    <t>Đăng ký thời gian vào/ra tại từng công đoạn khi sản xuất
-Xác nhận kết quả OK/NG
-Tính toán thời gian đã sản xuất
- (Chức năng trên thiết bị di động)</t>
-  </si>
-  <si>
-    <t>Đăng ký kết quả NG/OK và đánh dầu thực tế sản xuất vào đơn hàng (Tại công đoạn kiểm tra)
-(Chức năng trên máy tính)</t>
   </si>
   <si>
     <t>Hiển thị tiêu chuẩn</t>
@@ -136,6 +114,61 @@
   </si>
   <si>
     <t>Danh sách công đoạn</t>
+  </si>
+  <si>
+    <t>Thiết lập thông số máy quấn cho từng mã sản phẩm</t>
+  </si>
+  <si>
+    <t>Quét mã vạch của miếng, kiểm tra quy trình sản xuất của sản phẩm và chọn kết quả OK/NG</t>
+  </si>
+  <si>
+    <t>Đánh giá kết quả quấn tròn</t>
+  </si>
+  <si>
+    <t>Nhập thông số quấn, đánh giá kết quả, in phiếu theo dõi cho công đoạn</t>
+  </si>
+  <si>
+    <t>Đánh giá sản xuất 
+(Sấy, mài thô, làm cứng, sơn)</t>
+  </si>
+  <si>
+    <t>Thông số kĩ thuật quấn</t>
+  </si>
+  <si>
+    <t>Thông số kĩ thuật ngâm,nung</t>
+  </si>
+  <si>
+    <t>Thiết lập thông số máy ngâm, nung cho từng mã sản phẩm</t>
+  </si>
+  <si>
+    <t>Thông số kĩ thuật mài sau làm cứng</t>
+  </si>
+  <si>
+    <t>Thiết lập thông số máy mài cho từng mã sản phẩm</t>
+  </si>
+  <si>
+    <t>Đánh giá kết quả ngâm, nung</t>
+  </si>
+  <si>
+    <t>Đánh giá kết quả màu sau làm cứng</t>
+  </si>
+  <si>
+    <t>Nhập thông số điều kiện + kết quả ngâm &amp; nung , tự động đánh giá kết quả</t>
+  </si>
+  <si>
+    <t>Nhập thông sô kết quả mài, đánh giá kết quả</t>
+  </si>
+  <si>
+    <t>Thông số kĩ thuật kiểm tra</t>
+  </si>
+  <si>
+    <t>Thiết lập thông số máy kiểm tra cho từng mã sản phẩm</t>
+  </si>
+  <si>
+    <t>Đánh giá kết quả kiểm tra</t>
+  </si>
+  <si>
+    <t>Nhập thông số kiểm tra cho từng hạng mục, đánh giá kết quả</t>
   </si>
 </sst>
 </file>
@@ -167,9 +200,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -250,11 +282,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -274,11 +305,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -292,9 +323,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1179,10 +1215,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1222,15 +1258,13 @@
       <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5">
-        <v>2</v>
-      </c>
+      <c r="D4" s="5"/>
       <c r="E4" s="3"/>
       <c r="G4" s="3"/>
       <c r="I4" s="3"/>
@@ -1239,221 +1273,259 @@
       <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5">
-        <v>2</v>
-      </c>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>24</v>
+      <c r="B6" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="5">
-        <v>2</v>
-      </c>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>25</v>
+      <c r="B7" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="5">
-        <v>2</v>
-      </c>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>35</v>
+      <c r="B8" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="5">
-        <v>2</v>
-      </c>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>26</v>
+      <c r="B9" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="5">
-        <v>2</v>
-      </c>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="5">
-        <v>6</v>
-      </c>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="5">
-        <v>5</v>
-      </c>
+      <c r="B11" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>9</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="5">
-        <v>5</v>
-      </c>
+      <c r="B12" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>11</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="5">
-        <v>25</v>
-      </c>
+      <c r="B14" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>23</v>
+      <c r="B15" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="5">
-        <v>15</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>13</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>28</v>
+      <c r="B16" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="5">
-        <v>10</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>14</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="C17" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>15</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>16</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>17</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>18</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>19</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>20</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>21</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="8">
-        <f>SUM(D4:D18)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="C24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="C26" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A25:C25"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="C13" location="FormLenhSanXuat!A1" display="In lệnh sản xuất bao gồm thông tin đơn hàng và thông tin sản phẩm" xr:uid="{2F0FD212-9344-4171-9A8D-EF585CC22BE8}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
